--- a/Koong Bin/tables/MapTable60200.xlsx
+++ b/Koong Bin/tables/MapTable60200.xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VS Projects\ExcavatorKoong\Koong Bin\tables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18900" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="MapTable60412" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -77,7 +68,1951 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="266">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF4C4CFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9D19"/>
+          <bgColor rgb="FFFF9D19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFAC7A12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC2DFA5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFAEDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -325,22 +2260,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
     <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="22"/>
-      <tableStyleElement type="headerRow" dxfId="21"/>
-      <tableStyleElement type="totalRow" dxfId="20"/>
-      <tableStyleElement type="firstColumn" dxfId="19"/>
-      <tableStyleElement type="lastColumn" dxfId="18"/>
-      <tableStyleElement type="firstRowStripe" dxfId="17"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="265"/>
+      <tableStyleElement type="headerRow" dxfId="264"/>
+      <tableStyleElement type="totalRow" dxfId="263"/>
+      <tableStyleElement type="firstColumn" dxfId="262"/>
+      <tableStyleElement type="lastColumn" dxfId="261"/>
+      <tableStyleElement type="firstRowStripe" dxfId="260"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="259"/>
     </tableStyle>
     <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="totalRow" dxfId="13"/>
-      <tableStyleElement type="firstColumn" dxfId="12"/>
-      <tableStyleElement type="lastColumn" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="258"/>
+      <tableStyleElement type="headerRow" dxfId="257"/>
+      <tableStyleElement type="totalRow" dxfId="256"/>
+      <tableStyleElement type="firstColumn" dxfId="255"/>
+      <tableStyleElement type="lastColumn" dxfId="254"/>
+      <tableStyleElement type="firstRowStripe" dxfId="253"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="252"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -608,20 +2543,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BH200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AW22" sqref="AW22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH37" sqref="AH37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="60" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:60">
       <c r="A1">
         <v>16</v>
       </c>
@@ -803,7 +2738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:60">
       <c r="A2">
         <v>16</v>
       </c>
@@ -985,7 +2920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:60">
       <c r="A3">
         <v>16</v>
       </c>
@@ -1167,7 +3102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:60">
       <c r="A4">
         <v>16</v>
       </c>
@@ -1349,7 +3284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:60">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1531,7 +3466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:60">
       <c r="A6">
         <v>16</v>
       </c>
@@ -1713,7 +3648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:60">
       <c r="A7">
         <v>16</v>
       </c>
@@ -1895,7 +3830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:60">
       <c r="A8">
         <v>16</v>
       </c>
@@ -2077,7 +4012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:60">
       <c r="A9">
         <v>16</v>
       </c>
@@ -2259,7 +4194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:60">
       <c r="A10">
         <v>16</v>
       </c>
@@ -2441,7 +4376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:60">
       <c r="A11">
         <v>16</v>
       </c>
@@ -2623,7 +4558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:60">
       <c r="A12">
         <v>16</v>
       </c>
@@ -2661,34 +4596,34 @@
         <v>56</v>
       </c>
       <c r="M12">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="N12">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="O12">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="P12">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="Q12">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="R12">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="S12">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="T12">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="U12">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="V12">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="W12">
         <v>56</v>
@@ -2781,117 +4716,117 @@
         <v>56</v>
       </c>
       <c r="BA12">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="BB12">
+        <v>16</v>
+      </c>
+      <c r="BC12">
+        <v>56</v>
+      </c>
+      <c r="BD12">
+        <v>56</v>
+      </c>
+      <c r="BE12">
+        <v>56</v>
+      </c>
+      <c r="BF12">
+        <v>56</v>
+      </c>
+      <c r="BG12">
+        <v>16</v>
+      </c>
+      <c r="BH12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>56</v>
+      </c>
+      <c r="E13">
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <v>56</v>
+      </c>
+      <c r="G13">
+        <v>56</v>
+      </c>
+      <c r="H13">
+        <v>56</v>
+      </c>
+      <c r="I13">
+        <v>56</v>
+      </c>
+      <c r="J13">
+        <v>56</v>
+      </c>
+      <c r="K13">
+        <v>56</v>
+      </c>
+      <c r="L13">
+        <v>56</v>
+      </c>
+      <c r="M13">
+        <v>56</v>
+      </c>
+      <c r="N13">
+        <v>56</v>
+      </c>
+      <c r="O13">
+        <v>56</v>
+      </c>
+      <c r="P13">
+        <v>56</v>
+      </c>
+      <c r="Q13">
+        <v>56</v>
+      </c>
+      <c r="R13">
+        <v>56</v>
+      </c>
+      <c r="S13">
+        <v>56</v>
+      </c>
+      <c r="T13">
+        <v>56</v>
+      </c>
+      <c r="U13">
+        <v>56</v>
+      </c>
+      <c r="V13">
+        <v>56</v>
+      </c>
+      <c r="W13">
+        <v>56</v>
+      </c>
+      <c r="X13">
+        <v>56</v>
+      </c>
+      <c r="Y13">
+        <v>56</v>
+      </c>
+      <c r="Z13">
+        <v>56</v>
+      </c>
+      <c r="AA13">
+        <v>56</v>
+      </c>
+      <c r="AB13">
+        <v>56</v>
+      </c>
+      <c r="AC13">
         <v>80</v>
-      </c>
-      <c r="BC12">
-        <v>56</v>
-      </c>
-      <c r="BD12">
-        <v>56</v>
-      </c>
-      <c r="BE12">
-        <v>56</v>
-      </c>
-      <c r="BF12">
-        <v>56</v>
-      </c>
-      <c r="BG12">
-        <v>16</v>
-      </c>
-      <c r="BH12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>56</v>
-      </c>
-      <c r="D13">
-        <v>56</v>
-      </c>
-      <c r="E13">
-        <v>56</v>
-      </c>
-      <c r="F13">
-        <v>56</v>
-      </c>
-      <c r="G13">
-        <v>56</v>
-      </c>
-      <c r="H13">
-        <v>56</v>
-      </c>
-      <c r="I13">
-        <v>56</v>
-      </c>
-      <c r="J13">
-        <v>56</v>
-      </c>
-      <c r="K13">
-        <v>56</v>
-      </c>
-      <c r="L13">
-        <v>56</v>
-      </c>
-      <c r="M13">
-        <v>56</v>
-      </c>
-      <c r="N13">
-        <v>56</v>
-      </c>
-      <c r="O13">
-        <v>56</v>
-      </c>
-      <c r="P13">
-        <v>56</v>
-      </c>
-      <c r="Q13">
-        <v>56</v>
-      </c>
-      <c r="R13">
-        <v>56</v>
-      </c>
-      <c r="S13">
-        <v>56</v>
-      </c>
-      <c r="T13">
-        <v>56</v>
-      </c>
-      <c r="U13">
-        <v>56</v>
-      </c>
-      <c r="V13">
-        <v>56</v>
-      </c>
-      <c r="W13">
-        <v>56</v>
-      </c>
-      <c r="X13">
-        <v>56</v>
-      </c>
-      <c r="Y13">
-        <v>56</v>
-      </c>
-      <c r="Z13">
-        <v>56</v>
-      </c>
-      <c r="AA13">
-        <v>56</v>
-      </c>
-      <c r="AB13">
-        <v>56</v>
-      </c>
-      <c r="AC13">
-        <v>56</v>
       </c>
       <c r="AD13">
         <v>56</v>
@@ -2987,7 +4922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:60">
       <c r="A14">
         <v>16</v>
       </c>
@@ -3169,7 +5104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:60">
       <c r="A15">
         <v>16</v>
       </c>
@@ -3351,7 +5286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:60">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3533,7 +5468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:60">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3715,7 +5650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:60">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3819,7 +5754,7 @@
         <v>56</v>
       </c>
       <c r="AI18">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="AJ18">
         <v>56</v>
@@ -3897,7 +5832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:60">
       <c r="A19">
         <v>16</v>
       </c>
@@ -4001,7 +5936,7 @@
         <v>56</v>
       </c>
       <c r="AI19">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="AJ19">
         <v>80</v>
@@ -4079,7 +6014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:60">
       <c r="A20">
         <v>16</v>
       </c>
@@ -4261,7 +6196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:60">
       <c r="A21">
         <v>16</v>
       </c>
@@ -4443,7 +6378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:60">
       <c r="A22">
         <v>16</v>
       </c>
@@ -4487,7 +6422,7 @@
         <v>56</v>
       </c>
       <c r="O22">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P22">
         <v>56</v>
@@ -4625,7 +6560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:60">
       <c r="A23">
         <v>16</v>
       </c>
@@ -4807,7 +6742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:60">
       <c r="A24">
         <v>16</v>
       </c>
@@ -4959,10 +6894,10 @@
         <v>56</v>
       </c>
       <c r="AY24">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="AZ24">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="BA24">
         <v>56</v>
@@ -4989,7 +6924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:60">
       <c r="A25">
         <v>16</v>
       </c>
@@ -5171,7 +7106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:60">
       <c r="A26">
         <v>16</v>
       </c>
@@ -5353,7 +7288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:60">
       <c r="A27">
         <v>16</v>
       </c>
@@ -5391,7 +7326,7 @@
         <v>56</v>
       </c>
       <c r="M27">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="N27">
         <v>56</v>
@@ -5535,7 +7470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:60">
       <c r="A28">
         <v>16</v>
       </c>
@@ -5717,7 +7652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:60">
       <c r="A29">
         <v>16</v>
       </c>
@@ -5899,7 +7834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:60">
       <c r="A30">
         <v>16</v>
       </c>
@@ -6000,7 +7935,7 @@
         <v>56</v>
       </c>
       <c r="AH30">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="AI30">
         <v>56</v>
@@ -6030,19 +7965,19 @@
         <v>56</v>
       </c>
       <c r="AR30">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AS30">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AT30">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AU30">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AV30">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AW30">
         <v>56</v>
@@ -6081,7 +8016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:60">
       <c r="A31">
         <v>16</v>
       </c>
@@ -6212,19 +8147,19 @@
         <v>56</v>
       </c>
       <c r="AR31">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AS31">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AT31">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AU31">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AV31">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AW31">
         <v>56</v>
@@ -6263,7 +8198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:60">
       <c r="A32">
         <v>16</v>
       </c>
@@ -6394,19 +8329,19 @@
         <v>56</v>
       </c>
       <c r="AR32">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AS32">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AT32">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="AU32">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AV32">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AW32">
         <v>56</v>
@@ -6445,7 +8380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:60">
       <c r="A33">
         <v>16</v>
       </c>
@@ -6576,19 +8511,19 @@
         <v>56</v>
       </c>
       <c r="AR33">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AS33">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AT33">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="AU33">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AV33">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AW33">
         <v>56</v>
@@ -6627,7 +8562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:60">
       <c r="A34">
         <v>16</v>
       </c>
@@ -6653,7 +8588,7 @@
         <v>80</v>
       </c>
       <c r="I34">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="J34">
         <v>56</v>
@@ -6758,19 +8693,19 @@
         <v>56</v>
       </c>
       <c r="AR34">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AS34">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AT34">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="AU34">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AV34">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AW34">
         <v>56</v>
@@ -6809,7 +8744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:60">
       <c r="A35">
         <v>16</v>
       </c>
@@ -6919,7 +8854,7 @@
         <v>56</v>
       </c>
       <c r="AK35">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AL35">
         <v>56</v>
@@ -6940,19 +8875,19 @@
         <v>56</v>
       </c>
       <c r="AR35">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AS35">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AT35">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="AU35">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AV35">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AW35">
         <v>56</v>
@@ -6991,7 +8926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:60">
       <c r="A36">
         <v>16</v>
       </c>
@@ -7101,7 +9036,7 @@
         <v>56</v>
       </c>
       <c r="AK36">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AL36">
         <v>56</v>
@@ -7122,19 +9057,19 @@
         <v>56</v>
       </c>
       <c r="AR36">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="AS36">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AT36">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU36">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="AV36">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AW36">
         <v>56</v>
@@ -7173,7 +9108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:60">
       <c r="A37">
         <v>16</v>
       </c>
@@ -7202,10 +9137,10 @@
         <v>56</v>
       </c>
       <c r="J37">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K37">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L37">
         <v>56</v>
@@ -7283,10 +9218,10 @@
         <v>56</v>
       </c>
       <c r="AK37">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AL37">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AM37">
         <v>56</v>
@@ -7355,7 +9290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:60">
       <c r="A38">
         <v>16</v>
       </c>
@@ -7402,19 +9337,19 @@
         <v>56</v>
       </c>
       <c r="P38">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="Q38">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="R38">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="S38">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="T38">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="U38">
         <v>56</v>
@@ -7468,7 +9403,7 @@
         <v>56</v>
       </c>
       <c r="AL38">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AM38">
         <v>56</v>
@@ -7537,7 +9472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:60">
       <c r="A39">
         <v>16</v>
       </c>
@@ -7584,19 +9519,19 @@
         <v>56</v>
       </c>
       <c r="P39">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="Q39">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="R39">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="S39">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="T39">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="U39">
         <v>56</v>
@@ -7650,7 +9585,7 @@
         <v>56</v>
       </c>
       <c r="AL39">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AM39">
         <v>56</v>
@@ -7719,7 +9654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:60">
       <c r="A40">
         <v>16</v>
       </c>
@@ -7766,19 +9701,19 @@
         <v>56</v>
       </c>
       <c r="P40">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="Q40">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="R40">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="S40">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="T40">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="U40">
         <v>56</v>
@@ -7832,7 +9767,7 @@
         <v>56</v>
       </c>
       <c r="AL40">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AM40">
         <v>56</v>
@@ -7901,7 +9836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:60">
       <c r="A41">
         <v>16</v>
       </c>
@@ -7948,19 +9883,19 @@
         <v>56</v>
       </c>
       <c r="P41">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="Q41">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="R41">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="S41">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="T41">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="U41">
         <v>56</v>
@@ -8083,7 +10018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:60">
       <c r="A42">
         <v>16</v>
       </c>
@@ -8130,19 +10065,19 @@
         <v>56</v>
       </c>
       <c r="P42">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="Q42">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="R42">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="S42">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="T42">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="U42">
         <v>56</v>
@@ -8265,7 +10200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:60">
       <c r="A43">
         <v>16</v>
       </c>
@@ -8312,19 +10247,19 @@
         <v>56</v>
       </c>
       <c r="P43">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="Q43">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="R43">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="S43">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="T43">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="U43">
         <v>56</v>
@@ -8447,7 +10382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:60">
       <c r="A44">
         <v>16</v>
       </c>
@@ -8494,19 +10429,19 @@
         <v>56</v>
       </c>
       <c r="P44">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="Q44">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="R44">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="S44">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="T44">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="U44">
         <v>56</v>
@@ -8629,7 +10564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:60">
       <c r="A45">
         <v>16</v>
       </c>
@@ -8811,7 +10746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:60">
       <c r="A46">
         <v>16</v>
       </c>
@@ -8993,7 +10928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:60">
       <c r="A47">
         <v>16</v>
       </c>
@@ -9175,7 +11110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:60">
       <c r="A48">
         <v>16</v>
       </c>
@@ -9357,7 +11292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:60">
       <c r="A49">
         <v>16</v>
       </c>
@@ -9539,7 +11474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:60">
       <c r="A50">
         <v>16</v>
       </c>
@@ -9628,10 +11563,10 @@
         <v>56</v>
       </c>
       <c r="AD50">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="AE50">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="AF50">
         <v>32</v>
@@ -9697,7 +11632,7 @@
         <v>56</v>
       </c>
       <c r="BA50">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="BB50">
         <v>56</v>
@@ -9721,7 +11656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:60">
       <c r="A51">
         <v>16</v>
       </c>
@@ -9810,10 +11745,10 @@
         <v>56</v>
       </c>
       <c r="AD51">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="AE51">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="AF51">
         <v>32</v>
@@ -9903,7 +11838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:60">
       <c r="A52">
         <v>16</v>
       </c>
@@ -9992,10 +11927,10 @@
         <v>56</v>
       </c>
       <c r="AD52">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="AE52">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="AF52">
         <v>56</v>
@@ -10004,7 +11939,7 @@
         <v>56</v>
       </c>
       <c r="AH52">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AI52">
         <v>56</v>
@@ -10085,7 +12020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:60">
       <c r="A53">
         <v>16</v>
       </c>
@@ -10267,7 +12202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:60">
       <c r="A54">
         <v>16</v>
       </c>
@@ -10407,13 +12342,13 @@
         <v>56</v>
       </c>
       <c r="AU54">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="AV54">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="AW54">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="AX54">
         <v>56</v>
@@ -10449,7 +12384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:60">
       <c r="A55">
         <v>16</v>
       </c>
@@ -10631,7 +12566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:60">
       <c r="A56">
         <v>16</v>
       </c>
@@ -10813,7 +12748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:60">
       <c r="A57">
         <v>16</v>
       </c>
@@ -10995,7 +12930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:60">
       <c r="A58">
         <v>16</v>
       </c>
@@ -11177,7 +13112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:60">
       <c r="A59">
         <v>16</v>
       </c>
@@ -11359,7 +13294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:60">
       <c r="A60">
         <v>16</v>
       </c>
@@ -11541,7 +13476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:60">
       <c r="A61">
         <v>16</v>
       </c>
@@ -11723,7 +13658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:60">
       <c r="A62">
         <v>16</v>
       </c>
@@ -11905,7 +13840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:60">
       <c r="A63">
         <v>16</v>
       </c>
@@ -12087,7 +14022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:60">
       <c r="A64">
         <v>16</v>
       </c>
@@ -12269,7 +14204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:60">
       <c r="A65">
         <v>16</v>
       </c>
@@ -12451,7 +14386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:60">
       <c r="A66">
         <v>16</v>
       </c>
@@ -12633,7 +14568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:60">
       <c r="A67">
         <v>16</v>
       </c>
@@ -12815,7 +14750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:60">
       <c r="A68">
         <v>16</v>
       </c>
@@ -12997,7 +14932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:60">
       <c r="A69">
         <v>16</v>
       </c>
@@ -13179,7 +15114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:60">
       <c r="A70">
         <v>16</v>
       </c>
@@ -13361,7 +15296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:60">
       <c r="A71">
         <v>16</v>
       </c>
@@ -13543,7 +15478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:60">
       <c r="A72">
         <v>16</v>
       </c>
@@ -13725,7 +15660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:60">
       <c r="A73">
         <v>16</v>
       </c>
@@ -13907,7 +15842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:60">
       <c r="A74">
         <v>16</v>
       </c>
@@ -14089,7 +16024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:60">
       <c r="A75">
         <v>16</v>
       </c>
@@ -14271,7 +16206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:60">
       <c r="A76">
         <v>16</v>
       </c>
@@ -14453,7 +16388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:60">
       <c r="A77">
         <v>16</v>
       </c>
@@ -14635,7 +16570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:60">
       <c r="A78">
         <v>16</v>
       </c>
@@ -14817,7 +16752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:60">
       <c r="A79">
         <v>16</v>
       </c>
@@ -14999,7 +16934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:60">
       <c r="A80">
         <v>16</v>
       </c>
@@ -15181,7 +17116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:60">
       <c r="A81">
         <v>16</v>
       </c>
@@ -15363,7 +17298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:60">
       <c r="A82">
         <v>16</v>
       </c>
@@ -15545,7 +17480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:60">
       <c r="A83">
         <v>16</v>
       </c>
@@ -15565,7 +17500,7 @@
         <v>56</v>
       </c>
       <c r="G83">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="H83">
         <v>32</v>
@@ -15601,7 +17536,7 @@
         <v>32</v>
       </c>
       <c r="S83">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="T83">
         <v>56</v>
@@ -15727,7 +17662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:60">
       <c r="A84">
         <v>16</v>
       </c>
@@ -15747,43 +17682,43 @@
         <v>56</v>
       </c>
       <c r="G84">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="H84">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I84">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="J84">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="K84">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="L84">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="M84">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="N84">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="O84">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="P84">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="Q84">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="R84">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="S84">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="T84">
         <v>56</v>
@@ -15909,7 +17844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:60">
       <c r="A85">
         <v>16</v>
       </c>
@@ -16091,7 +18026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:60">
       <c r="A86">
         <v>16</v>
       </c>
@@ -16273,7 +18208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:60">
       <c r="A87">
         <v>16</v>
       </c>
@@ -16455,7 +18390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:60">
       <c r="A88">
         <v>16</v>
       </c>
@@ -16637,7 +18572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:60">
       <c r="A89">
         <v>16</v>
       </c>
@@ -16819,7 +18754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:60">
       <c r="A90">
         <v>16</v>
       </c>
@@ -17001,7 +18936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:60">
       <c r="A91">
         <v>16</v>
       </c>
@@ -17183,7 +19118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:60">
       <c r="A92">
         <v>16</v>
       </c>
@@ -17365,7 +19300,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:60">
       <c r="A93">
         <v>16</v>
       </c>
@@ -17547,7 +19482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:60">
       <c r="A94">
         <v>16</v>
       </c>
@@ -17729,7 +19664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:60">
       <c r="A95">
         <v>16</v>
       </c>
@@ -17911,7 +19846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:60">
       <c r="A96">
         <v>16</v>
       </c>
@@ -18093,7 +20028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:60">
       <c r="A97">
         <v>16</v>
       </c>
@@ -18275,7 +20210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:60">
       <c r="A98">
         <v>16</v>
       </c>
@@ -18457,7 +20392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:60">
       <c r="A99">
         <v>16</v>
       </c>
@@ -18639,7 +20574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:60">
       <c r="A100">
         <v>16</v>
       </c>
@@ -18821,7 +20756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:60">
       <c r="A101">
         <v>16</v>
       </c>
@@ -19003,7 +20938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:60">
       <c r="A102">
         <v>16</v>
       </c>
@@ -19185,7 +21120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:60">
       <c r="A103">
         <v>16</v>
       </c>
@@ -19367,7 +21302,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:60">
       <c r="A104">
         <v>16</v>
       </c>
@@ -19549,7 +21484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:60">
       <c r="A105">
         <v>16</v>
       </c>
@@ -19731,7 +21666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:60">
       <c r="A106">
         <v>16</v>
       </c>
@@ -19913,7 +21848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:60">
       <c r="A107">
         <v>16</v>
       </c>
@@ -20095,7 +22030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:60">
       <c r="A108">
         <v>16</v>
       </c>
@@ -20277,7 +22212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:60">
       <c r="A109">
         <v>16</v>
       </c>
@@ -20459,7 +22394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:60">
       <c r="A110">
         <v>16</v>
       </c>
@@ -20641,7 +22576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:60">
       <c r="A111">
         <v>16</v>
       </c>
@@ -20823,7 +22758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:60">
       <c r="A112">
         <v>16</v>
       </c>
@@ -21005,7 +22940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:60">
       <c r="A113">
         <v>16</v>
       </c>
@@ -21187,7 +23122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:60">
       <c r="A114">
         <v>16</v>
       </c>
@@ -21369,7 +23304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:60">
       <c r="A115">
         <v>16</v>
       </c>
@@ -21551,7 +23486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:60">
       <c r="A116">
         <v>16</v>
       </c>
@@ -21733,7 +23668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:60">
       <c r="A117">
         <v>16</v>
       </c>
@@ -21915,7 +23850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:60">
       <c r="A118">
         <v>16</v>
       </c>
@@ -22097,7 +24032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:60">
       <c r="A119">
         <v>16</v>
       </c>
@@ -22279,7 +24214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:60">
       <c r="A120">
         <v>16</v>
       </c>
@@ -22461,7 +24396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:60">
       <c r="A121">
         <v>16</v>
       </c>
@@ -22643,7 +24578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:60">
       <c r="A122">
         <v>16</v>
       </c>
@@ -22825,7 +24760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:60">
       <c r="A123">
         <v>16</v>
       </c>
@@ -23007,7 +24942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:60">
       <c r="A124">
         <v>16</v>
       </c>
@@ -23189,7 +25124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:60">
       <c r="A125">
         <v>16</v>
       </c>
@@ -23371,7 +25306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:60">
       <c r="A126">
         <v>16</v>
       </c>
@@ -23553,7 +25488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:60">
       <c r="A127">
         <v>16</v>
       </c>
@@ -23735,7 +25670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:60">
       <c r="A128">
         <v>16</v>
       </c>
@@ -23917,7 +25852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:60">
       <c r="A129">
         <v>16</v>
       </c>
@@ -24099,7 +26034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:60">
       <c r="A130">
         <v>16</v>
       </c>
@@ -24281,7 +26216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:60">
       <c r="A131">
         <v>16</v>
       </c>
@@ -24463,7 +26398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:60">
       <c r="A132">
         <v>16</v>
       </c>
@@ -24645,7 +26580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:60">
       <c r="A133">
         <v>16</v>
       </c>
@@ -24827,7 +26762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:60">
       <c r="A134">
         <v>16</v>
       </c>
@@ -25009,7 +26944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:60">
       <c r="A135">
         <v>16</v>
       </c>
@@ -25191,7 +27126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:60">
       <c r="A136">
         <v>16</v>
       </c>
@@ -25373,7 +27308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:60">
       <c r="A137">
         <v>16</v>
       </c>
@@ -25555,7 +27490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:60">
       <c r="A138">
         <v>16</v>
       </c>
@@ -25737,7 +27672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:60">
       <c r="A139">
         <v>16</v>
       </c>
@@ -25919,7 +27854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:60">
       <c r="A140">
         <v>16</v>
       </c>
@@ -26101,7 +28036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:60">
       <c r="A141">
         <v>16</v>
       </c>
@@ -26283,7 +28218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:60">
       <c r="A142">
         <v>16</v>
       </c>
@@ -26465,7 +28400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:60">
       <c r="A143">
         <v>16</v>
       </c>
@@ -26647,7 +28582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:60">
       <c r="A144">
         <v>16</v>
       </c>
@@ -26829,7 +28764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:60">
       <c r="A145">
         <v>16</v>
       </c>
@@ -27011,7 +28946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:60">
       <c r="A146">
         <v>16</v>
       </c>
@@ -27193,7 +29128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:60">
       <c r="A147">
         <v>16</v>
       </c>
@@ -27375,7 +29310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:60">
       <c r="A148">
         <v>16</v>
       </c>
@@ -27557,7 +29492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:60">
       <c r="A149">
         <v>16</v>
       </c>
@@ -27739,7 +29674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:60">
       <c r="A150">
         <v>16</v>
       </c>
@@ -27921,7 +29856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:60">
       <c r="A151">
         <v>16</v>
       </c>
@@ -28103,7 +30038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:60">
       <c r="A152">
         <v>16</v>
       </c>
@@ -28285,7 +30220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:60">
       <c r="A153">
         <v>16</v>
       </c>
@@ -28467,7 +30402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:60">
       <c r="A154">
         <v>16</v>
       </c>
@@ -28649,7 +30584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:60">
       <c r="A155">
         <v>16</v>
       </c>
@@ -28831,7 +30766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:60">
       <c r="A156">
         <v>16</v>
       </c>
@@ -29013,7 +30948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:60">
       <c r="A157">
         <v>16</v>
       </c>
@@ -29195,7 +31130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:60">
       <c r="A158">
         <v>16</v>
       </c>
@@ -29377,7 +31312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:60">
       <c r="A159">
         <v>16</v>
       </c>
@@ -29559,7 +31494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:60">
       <c r="A160">
         <v>16</v>
       </c>
@@ -29741,7 +31676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:60">
       <c r="A161">
         <v>16</v>
       </c>
@@ -29923,7 +31858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:60">
       <c r="A162">
         <v>16</v>
       </c>
@@ -30105,7 +32040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:60">
       <c r="A163">
         <v>16</v>
       </c>
@@ -30287,7 +32222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:60">
       <c r="A164">
         <v>16</v>
       </c>
@@ -30469,7 +32404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:60">
       <c r="A165">
         <v>16</v>
       </c>
@@ -30651,7 +32586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:60">
       <c r="A166">
         <v>16</v>
       </c>
@@ -30833,7 +32768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:60">
       <c r="A167">
         <v>16</v>
       </c>
@@ -31015,7 +32950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:60">
       <c r="A168">
         <v>16</v>
       </c>
@@ -31197,7 +33132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:60">
       <c r="A169">
         <v>16</v>
       </c>
@@ -31379,7 +33314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:60">
       <c r="A170">
         <v>16</v>
       </c>
@@ -31561,7 +33496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:60">
       <c r="A171">
         <v>16</v>
       </c>
@@ -31743,7 +33678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:60">
       <c r="A172">
         <v>16</v>
       </c>
@@ -31925,7 +33860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:60">
       <c r="A173">
         <v>16</v>
       </c>
@@ -32107,7 +34042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:60">
       <c r="A174">
         <v>16</v>
       </c>
@@ -32289,7 +34224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:60">
       <c r="A175">
         <v>16</v>
       </c>
@@ -32471,7 +34406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:60">
       <c r="A176">
         <v>16</v>
       </c>
@@ -32653,7 +34588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:60">
       <c r="A177">
         <v>16</v>
       </c>
@@ -32835,7 +34770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:60">
       <c r="A178">
         <v>16</v>
       </c>
@@ -33017,7 +34952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:60">
       <c r="A179">
         <v>16</v>
       </c>
@@ -33199,7 +35134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:60">
       <c r="A180">
         <v>16</v>
       </c>
@@ -33381,7 +35316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:60">
       <c r="A181">
         <v>16</v>
       </c>
@@ -33563,7 +35498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:60">
       <c r="A182">
         <v>16</v>
       </c>
@@ -33745,7 +35680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:60">
       <c r="A183">
         <v>16</v>
       </c>
@@ -33927,7 +35862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:60">
       <c r="A184">
         <v>16</v>
       </c>
@@ -34109,7 +36044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:60">
       <c r="A185">
         <v>16</v>
       </c>
@@ -34291,7 +36226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:60">
       <c r="A186">
         <v>16</v>
       </c>
@@ -34473,7 +36408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:60">
       <c r="A187">
         <v>16</v>
       </c>
@@ -34655,7 +36590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:60">
       <c r="A188">
         <v>16</v>
       </c>
@@ -34837,7 +36772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:60">
       <c r="A189">
         <v>16</v>
       </c>
@@ -35019,7 +36954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:60">
       <c r="A190">
         <v>16</v>
       </c>
@@ -35201,7 +37136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:60">
       <c r="A191">
         <v>16</v>
       </c>
@@ -35383,7 +37318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:60">
       <c r="A192">
         <v>16</v>
       </c>
@@ -35565,7 +37500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:60">
       <c r="A193">
         <v>16</v>
       </c>
@@ -35747,7 +37682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:60">
       <c r="A194">
         <v>16</v>
       </c>
@@ -35929,7 +37864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:60">
       <c r="A195">
         <v>16</v>
       </c>
@@ -36111,7 +38046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:60">
       <c r="A196">
         <v>16</v>
       </c>
@@ -36293,7 +38228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:60">
       <c r="A197">
         <v>16</v>
       </c>
@@ -36475,7 +38410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:60">
       <c r="A198">
         <v>16</v>
       </c>
@@ -36657,7 +38592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:60">
       <c r="A199">
         <v>16</v>
       </c>
@@ -36839,7 +38774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:60">
       <c r="A200">
         <v>16</v>
       </c>
@@ -37024,43 +38959,43 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>56</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>83</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Koong Bin/tables/MapTable60200.xlsx
+++ b/Koong Bin/tables/MapTable60200.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VS Projects\ExcavatorKoong\Koong Bin\tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18900" windowHeight="12210" tabRatio="500"/>
   </bookViews>
@@ -14,8 +19,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -68,1951 +73,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="266">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF4C4CFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9D19"/>
-          <bgColor rgb="FFFF9D19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFAC7A12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC2DFA5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFAEDD2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2260,22 +321,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
     <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="265"/>
-      <tableStyleElement type="headerRow" dxfId="264"/>
-      <tableStyleElement type="totalRow" dxfId="263"/>
-      <tableStyleElement type="firstColumn" dxfId="262"/>
-      <tableStyleElement type="lastColumn" dxfId="261"/>
-      <tableStyleElement type="firstRowStripe" dxfId="260"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="259"/>
+      <tableStyleElement type="wholeTable" dxfId="22"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="totalRow" dxfId="20"/>
+      <tableStyleElement type="firstColumn" dxfId="19"/>
+      <tableStyleElement type="lastColumn" dxfId="18"/>
+      <tableStyleElement type="firstRowStripe" dxfId="17"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="16"/>
     </tableStyle>
     <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="258"/>
-      <tableStyleElement type="headerRow" dxfId="257"/>
-      <tableStyleElement type="totalRow" dxfId="256"/>
-      <tableStyleElement type="firstColumn" dxfId="255"/>
-      <tableStyleElement type="lastColumn" dxfId="254"/>
-      <tableStyleElement type="firstRowStripe" dxfId="253"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="252"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="totalRow" dxfId="13"/>
+      <tableStyleElement type="firstColumn" dxfId="12"/>
+      <tableStyleElement type="lastColumn" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2543,20 +604,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BH200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH37" sqref="AH37"/>
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="60" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>16</v>
       </c>
@@ -2738,7 +799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>16</v>
       </c>
@@ -2920,7 +981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>16</v>
       </c>
@@ -3030,7 +1091,7 @@
         <v>82</v>
       </c>
       <c r="AK3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL3">
         <v>83</v>
@@ -3102,7 +1163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>16</v>
       </c>
@@ -3203,19 +1264,19 @@
         <v>56</v>
       </c>
       <c r="AH4">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="AI4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ4">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK4">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="AL4">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="AM4">
         <v>32</v>
@@ -3284,7 +1345,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>16</v>
       </c>
@@ -3385,19 +1446,19 @@
         <v>56</v>
       </c>
       <c r="AH5">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="AI5">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ5">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK5">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="AL5">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="AM5">
         <v>32</v>
@@ -3466,7 +1527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>16</v>
       </c>
@@ -3648,7 +1709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>16</v>
       </c>
@@ -3830,7 +1891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>16</v>
       </c>
@@ -4012,7 +2073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>16</v>
       </c>
@@ -4194,7 +2255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>16</v>
       </c>
@@ -4376,7 +2437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>16</v>
       </c>
@@ -4558,7 +2619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>16</v>
       </c>
@@ -4740,7 +2801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>16</v>
       </c>
@@ -4922,7 +2983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>16</v>
       </c>
@@ -5104,7 +3165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>16</v>
       </c>
@@ -5286,7 +3347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>16</v>
       </c>
@@ -5468,7 +3529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:60">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5650,7 +3711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:60">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5832,7 +3893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:60">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -6014,7 +4075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:60">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
@@ -6196,7 +4257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:60">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>16</v>
       </c>
@@ -6378,7 +4439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:60">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>16</v>
       </c>
@@ -6560,7 +4621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:60">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>16</v>
       </c>
@@ -6742,7 +4803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:60">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>16</v>
       </c>
@@ -6924,7 +4985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:60">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>16</v>
       </c>
@@ -7106,7 +5167,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:60">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>16</v>
       </c>
@@ -7288,7 +5349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:60">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>16</v>
       </c>
@@ -7470,7 +5531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:60">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>16</v>
       </c>
@@ -7652,7 +5713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:60">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>16</v>
       </c>
@@ -7834,7 +5895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:60">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>16</v>
       </c>
@@ -8016,7 +6077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:60">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>16</v>
       </c>
@@ -8198,7 +6259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:60">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>16</v>
       </c>
@@ -8380,7 +6441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:60">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>16</v>
       </c>
@@ -8562,7 +6623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:60">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>16</v>
       </c>
@@ -8744,7 +6805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:60">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>16</v>
       </c>
@@ -8926,7 +6987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:60">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>16</v>
       </c>
@@ -9108,7 +7169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:60">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>16</v>
       </c>
@@ -9290,7 +7351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:60">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>16</v>
       </c>
@@ -9472,7 +7533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:60">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>16</v>
       </c>
@@ -9654,7 +7715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:60">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>16</v>
       </c>
@@ -9836,7 +7897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:60">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>16</v>
       </c>
@@ -10018,7 +8079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:60">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>16</v>
       </c>
@@ -10200,7 +8261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:60">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>16</v>
       </c>
@@ -10382,7 +8443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:60">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>16</v>
       </c>
@@ -10564,7 +8625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:60">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>16</v>
       </c>
@@ -10746,7 +8807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:60">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>16</v>
       </c>
@@ -10928,7 +8989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:60">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>16</v>
       </c>
@@ -11110,7 +9171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:60">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>16</v>
       </c>
@@ -11292,7 +9353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:60">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>16</v>
       </c>
@@ -11474,7 +9535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:60">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>16</v>
       </c>
@@ -11656,7 +9717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:60">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>16</v>
       </c>
@@ -11838,7 +9899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:60">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>16</v>
       </c>
@@ -12020,7 +10081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:60">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>16</v>
       </c>
@@ -12202,7 +10263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:60">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>16</v>
       </c>
@@ -12384,7 +10445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:60">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>16</v>
       </c>
@@ -12566,7 +10627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:60">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>16</v>
       </c>
@@ -12748,7 +10809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:60">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>16</v>
       </c>
@@ -12930,7 +10991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:60">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>16</v>
       </c>
@@ -13112,7 +11173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:60">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>16</v>
       </c>
@@ -13294,7 +11355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:60">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>16</v>
       </c>
@@ -13476,7 +11537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:60">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>16</v>
       </c>
@@ -13658,7 +11719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:60">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>16</v>
       </c>
@@ -13840,7 +11901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:60">
+    <row r="63" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>16</v>
       </c>
@@ -14022,7 +12083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:60">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>16</v>
       </c>
@@ -14204,7 +12265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:60">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>16</v>
       </c>
@@ -14386,7 +12447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:60">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>16</v>
       </c>
@@ -14568,7 +12629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:60">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>16</v>
       </c>
@@ -14750,7 +12811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:60">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>16</v>
       </c>
@@ -14932,7 +12993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:60">
+    <row r="69" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>16</v>
       </c>
@@ -15114,7 +13175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:60">
+    <row r="70" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>16</v>
       </c>
@@ -15296,7 +13357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:60">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>16</v>
       </c>
@@ -15478,7 +13539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:60">
+    <row r="72" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>16</v>
       </c>
@@ -15660,7 +13721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:60">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>16</v>
       </c>
@@ -15842,7 +13903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:60">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>16</v>
       </c>
@@ -16024,7 +14085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:60">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>16</v>
       </c>
@@ -16206,7 +14267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:60">
+    <row r="76" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>16</v>
       </c>
@@ -16388,7 +14449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:60">
+    <row r="77" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>16</v>
       </c>
@@ -16570,7 +14631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:60">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>16</v>
       </c>
@@ -16752,7 +14813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:60">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>16</v>
       </c>
@@ -16934,7 +14995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:60">
+    <row r="80" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>16</v>
       </c>
@@ -17116,7 +15177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:60">
+    <row r="81" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>16</v>
       </c>
@@ -17298,7 +15359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:60">
+    <row r="82" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>16</v>
       </c>
@@ -17480,7 +15541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:60">
+    <row r="83" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>16</v>
       </c>
@@ -17662,7 +15723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:60">
+    <row r="84" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>16</v>
       </c>
@@ -17844,7 +15905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:60">
+    <row r="85" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>16</v>
       </c>
@@ -18026,7 +16087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:60">
+    <row r="86" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>16</v>
       </c>
@@ -18208,7 +16269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:60">
+    <row r="87" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>16</v>
       </c>
@@ -18390,7 +16451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:60">
+    <row r="88" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>16</v>
       </c>
@@ -18572,7 +16633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:60">
+    <row r="89" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>16</v>
       </c>
@@ -18754,7 +16815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:60">
+    <row r="90" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>16</v>
       </c>
@@ -18936,7 +16997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:60">
+    <row r="91" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>16</v>
       </c>
@@ -19118,7 +17179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:60">
+    <row r="92" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>16</v>
       </c>
@@ -19300,7 +17361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:60">
+    <row r="93" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>16</v>
       </c>
@@ -19482,7 +17543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:60">
+    <row r="94" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>16</v>
       </c>
@@ -19664,7 +17725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:60">
+    <row r="95" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>16</v>
       </c>
@@ -19846,7 +17907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:60">
+    <row r="96" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>16</v>
       </c>
@@ -20028,7 +18089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:60">
+    <row r="97" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>16</v>
       </c>
@@ -20210,7 +18271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:60">
+    <row r="98" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>16</v>
       </c>
@@ -20392,7 +18453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:60">
+    <row r="99" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>16</v>
       </c>
@@ -20574,7 +18635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:60">
+    <row r="100" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>16</v>
       </c>
@@ -20756,7 +18817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:60">
+    <row r="101" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>16</v>
       </c>
@@ -20938,7 +18999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:60">
+    <row r="102" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>16</v>
       </c>
@@ -21120,7 +19181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:60">
+    <row r="103" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>16</v>
       </c>
@@ -21302,7 +19363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:60">
+    <row r="104" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>16</v>
       </c>
@@ -21484,7 +19545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:60">
+    <row r="105" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>16</v>
       </c>
@@ -21666,7 +19727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:60">
+    <row r="106" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>16</v>
       </c>
@@ -21848,7 +19909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:60">
+    <row r="107" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>16</v>
       </c>
@@ -22030,7 +20091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:60">
+    <row r="108" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>16</v>
       </c>
@@ -22212,7 +20273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:60">
+    <row r="109" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>16</v>
       </c>
@@ -22394,7 +20455,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:60">
+    <row r="110" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>16</v>
       </c>
@@ -22576,7 +20637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:60">
+    <row r="111" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>16</v>
       </c>
@@ -22758,7 +20819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:60">
+    <row r="112" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>16</v>
       </c>
@@ -22940,7 +21001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:60">
+    <row r="113" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>16</v>
       </c>
@@ -23122,7 +21183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:60">
+    <row r="114" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>16</v>
       </c>
@@ -23304,7 +21365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:60">
+    <row r="115" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>16</v>
       </c>
@@ -23486,7 +21547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:60">
+    <row r="116" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>16</v>
       </c>
@@ -23668,7 +21729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:60">
+    <row r="117" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>16</v>
       </c>
@@ -23850,7 +21911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:60">
+    <row r="118" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>16</v>
       </c>
@@ -24032,7 +22093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:60">
+    <row r="119" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>16</v>
       </c>
@@ -24214,7 +22275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:60">
+    <row r="120" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>16</v>
       </c>
@@ -24396,7 +22457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:60">
+    <row r="121" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>16</v>
       </c>
@@ -24578,7 +22639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:60">
+    <row r="122" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>16</v>
       </c>
@@ -24760,7 +22821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:60">
+    <row r="123" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>16</v>
       </c>
@@ -24942,7 +23003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:60">
+    <row r="124" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>16</v>
       </c>
@@ -25124,7 +23185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:60">
+    <row r="125" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>16</v>
       </c>
@@ -25306,7 +23367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:60">
+    <row r="126" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>16</v>
       </c>
@@ -25488,7 +23549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:60">
+    <row r="127" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>16</v>
       </c>
@@ -25670,7 +23731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:60">
+    <row r="128" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>16</v>
       </c>
@@ -25852,7 +23913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:60">
+    <row r="129" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>16</v>
       </c>
@@ -26034,7 +24095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:60">
+    <row r="130" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>16</v>
       </c>
@@ -26216,7 +24277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:60">
+    <row r="131" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>16</v>
       </c>
@@ -26398,7 +24459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:60">
+    <row r="132" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>16</v>
       </c>
@@ -26580,7 +24641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:60">
+    <row r="133" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>16</v>
       </c>
@@ -26762,7 +24823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:60">
+    <row r="134" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>16</v>
       </c>
@@ -26944,7 +25005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:60">
+    <row r="135" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>16</v>
       </c>
@@ -27126,7 +25187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:60">
+    <row r="136" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>16</v>
       </c>
@@ -27308,7 +25369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:60">
+    <row r="137" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>16</v>
       </c>
@@ -27490,7 +25551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:60">
+    <row r="138" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>16</v>
       </c>
@@ -27672,7 +25733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:60">
+    <row r="139" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>16</v>
       </c>
@@ -27854,7 +25915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:60">
+    <row r="140" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>16</v>
       </c>
@@ -28036,7 +26097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:60">
+    <row r="141" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>16</v>
       </c>
@@ -28218,7 +26279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:60">
+    <row r="142" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>16</v>
       </c>
@@ -28400,7 +26461,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:60">
+    <row r="143" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>16</v>
       </c>
@@ -28582,7 +26643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:60">
+    <row r="144" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>16</v>
       </c>
@@ -28764,7 +26825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:60">
+    <row r="145" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>16</v>
       </c>
@@ -28946,7 +27007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:60">
+    <row r="146" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>16</v>
       </c>
@@ -29128,7 +27189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:60">
+    <row r="147" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>16</v>
       </c>
@@ -29310,7 +27371,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:60">
+    <row r="148" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>16</v>
       </c>
@@ -29492,7 +27553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:60">
+    <row r="149" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>16</v>
       </c>
@@ -29674,7 +27735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:60">
+    <row r="150" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>16</v>
       </c>
@@ -29856,7 +27917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:60">
+    <row r="151" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>16</v>
       </c>
@@ -30038,7 +28099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:60">
+    <row r="152" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>16</v>
       </c>
@@ -30220,7 +28281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:60">
+    <row r="153" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>16</v>
       </c>
@@ -30402,7 +28463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:60">
+    <row r="154" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>16</v>
       </c>
@@ -30584,7 +28645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:60">
+    <row r="155" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>16</v>
       </c>
@@ -30766,7 +28827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:60">
+    <row r="156" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>16</v>
       </c>
@@ -30948,7 +29009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:60">
+    <row r="157" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>16</v>
       </c>
@@ -31130,7 +29191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:60">
+    <row r="158" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>16</v>
       </c>
@@ -31312,7 +29373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:60">
+    <row r="159" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>16</v>
       </c>
@@ -31494,7 +29555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:60">
+    <row r="160" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>16</v>
       </c>
@@ -31676,7 +29737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:60">
+    <row r="161" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>16</v>
       </c>
@@ -31858,7 +29919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:60">
+    <row r="162" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>16</v>
       </c>
@@ -32040,7 +30101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:60">
+    <row r="163" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>16</v>
       </c>
@@ -32222,7 +30283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:60">
+    <row r="164" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>16</v>
       </c>
@@ -32404,7 +30465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:60">
+    <row r="165" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>16</v>
       </c>
@@ -32586,7 +30647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:60">
+    <row r="166" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>16</v>
       </c>
@@ -32768,7 +30829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:60">
+    <row r="167" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>16</v>
       </c>
@@ -32950,7 +31011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:60">
+    <row r="168" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>16</v>
       </c>
@@ -33132,7 +31193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:60">
+    <row r="169" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>16</v>
       </c>
@@ -33314,7 +31375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:60">
+    <row r="170" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>16</v>
       </c>
@@ -33496,7 +31557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:60">
+    <row r="171" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>16</v>
       </c>
@@ -33678,7 +31739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:60">
+    <row r="172" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>16</v>
       </c>
@@ -33860,7 +31921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:60">
+    <row r="173" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>16</v>
       </c>
@@ -34042,7 +32103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:60">
+    <row r="174" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>16</v>
       </c>
@@ -34224,7 +32285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:60">
+    <row r="175" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>16</v>
       </c>
@@ -34406,7 +32467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:60">
+    <row r="176" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>16</v>
       </c>
@@ -34588,7 +32649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:60">
+    <row r="177" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>16</v>
       </c>
@@ -34770,7 +32831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:60">
+    <row r="178" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>16</v>
       </c>
@@ -34952,7 +33013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:60">
+    <row r="179" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>16</v>
       </c>
@@ -35134,7 +33195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:60">
+    <row r="180" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>16</v>
       </c>
@@ -35316,7 +33377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:60">
+    <row r="181" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>16</v>
       </c>
@@ -35498,7 +33559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:60">
+    <row r="182" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>16</v>
       </c>
@@ -35680,7 +33741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:60">
+    <row r="183" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>16</v>
       </c>
@@ -35862,7 +33923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:60">
+    <row r="184" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>16</v>
       </c>
@@ -36044,7 +34105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:60">
+    <row r="185" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>16</v>
       </c>
@@ -36226,7 +34287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:60">
+    <row r="186" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>16</v>
       </c>
@@ -36408,7 +34469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:60">
+    <row r="187" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>16</v>
       </c>
@@ -36590,7 +34651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:60">
+    <row r="188" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>16</v>
       </c>
@@ -36772,7 +34833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:60">
+    <row r="189" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>16</v>
       </c>
@@ -36954,7 +35015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:60">
+    <row r="190" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>16</v>
       </c>
@@ -37136,7 +35197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:60">
+    <row r="191" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>16</v>
       </c>
@@ -37318,7 +35379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:60">
+    <row r="192" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>16</v>
       </c>
@@ -37500,7 +35561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:60">
+    <row r="193" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>16</v>
       </c>
@@ -37682,7 +35743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:60">
+    <row r="194" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>16</v>
       </c>
@@ -37864,7 +35925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:60">
+    <row r="195" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>16</v>
       </c>
@@ -38046,7 +36107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:60">
+    <row r="196" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>16</v>
       </c>
@@ -38228,7 +36289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:60">
+    <row r="197" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>16</v>
       </c>
@@ -38410,7 +36471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:60">
+    <row r="198" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>16</v>
       </c>
@@ -38592,7 +36653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:60">
+    <row r="199" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>16</v>
       </c>
@@ -38774,7 +36835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:60">
+    <row r="200" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>16</v>
       </c>
@@ -38959,43 +37020,43 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>56</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>83</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
